--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCSC\OS\Multi Level Queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{036E0B6C-A835-4855-9F6B-FC8198D329DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D283D72-9998-4E0B-8543-7DE033204898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,19 +39,19 @@
     <t xml:space="preserve"> Burst Time</t>
   </si>
   <si>
-    <t xml:space="preserve"> Priority</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Waiting Time</t>
   </si>
   <si>
     <t xml:space="preserve"> Turnaround Time</t>
   </si>
+  <si>
+    <t>Total Waiting Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,6 +604,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multi Level Queue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -624,17 +660,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5042022112913515E-2"/>
-          <c:y val="9.8123980424143567E-2"/>
-          <c:w val="0.94107306354147591"/>
-          <c:h val="0.77388965245575947"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -665,60 +691,57 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>data!$A$2:$A$47</c:f>
+              <c:f>data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
@@ -729,20 +752,20 @@
                 <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -758,43 +781,13 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6141-43E1-A70C-0EF1FD647BEA}"/>
+              <c16:uniqueId val="{00000000-412D-469C-AD7E-E43A28A7CE58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,136 +817,103 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>data!$B$2:$B$47</c:f>
+              <c:f>data!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6141-43E1-A70C-0EF1FD647BEA}"/>
+              <c16:uniqueId val="{00000001-412D-469C-AD7E-E43A28A7CE58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,7 +926,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Priority</c:v>
+                  <c:v> Waiting Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -983,136 +943,103 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$2:$C$47</c:f>
+              <c:f>data!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>207.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>217.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6141-43E1-A70C-0EF1FD647BEA}"/>
+              <c16:uniqueId val="{00000002-412D-469C-AD7E-E43A28A7CE58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1125,7 +1052,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Waiting Time</c:v>
+                  <c:v> Turnaround Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1142,295 +1069,103 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$47</c:f>
+              <c:f>data!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>257.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>513.33333333333303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>590</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>513.33333333333303</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>590</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>140</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>300</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>912</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>916</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>921</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>987.66666666666595</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1057.6666666666599</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>140</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>260</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>380</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>560</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>720</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6141-43E1-A70C-0EF1FD647BEA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Turnaround Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$2:$E$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>563.33333333333303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>563.33333333333303</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1037.6666666666599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1107.6666666666599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>770</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6141-43E1-A70C-0EF1FD647BEA}"/>
+              <c16:uniqueId val="{00000003-412D-469C-AD7E-E43A28A7CE58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,11 +1179,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2056064063"/>
-        <c:axId val="2056065727"/>
+        <c:axId val="1642974672"/>
+        <c:axId val="1642975088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2056064063"/>
+        <c:axId val="1642974672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056065727"/>
+        <c:crossAx val="1642975088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1498,7 +1233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056065727"/>
+        <c:axId val="1642975088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056064063"/>
+        <c:crossAx val="1642974672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,22 +1921,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B21103-246E-4921-9080-AFCF4367EEED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939FB56F-A5DB-41AA-92C1-BF9407CC479D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,14 +2253,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2549,89 +2288,78 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>60</v>
-      </c>
-      <c r="E2">
-        <v>90</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D4">
-        <v>140</v>
-      </c>
-      <c r="E4">
-        <v>170</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>207.666666666666</v>
       </c>
       <c r="D5">
-        <v>160</v>
-      </c>
-      <c r="E5">
-        <v>216</v>
+        <v>257.666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>217.666666666666</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>267.666666666666</v>
       </c>
       <c r="E6">
-        <v>303</v>
+        <f>SUM(C2:C6)</f>
+        <v>1014.3333333333321</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -2640,83 +2368,72 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>513.33333333333303</v>
-      </c>
-      <c r="E8">
-        <v>563.33333333333303</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>520</v>
-      </c>
-      <c r="E9">
-        <v>570</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>590</v>
-      </c>
-      <c r="E10">
-        <v>640</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D11">
-        <v>160</v>
-      </c>
-      <c r="E11">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E12">
-        <v>240</v>
+        <f>SUM(C8:C12)</f>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -2725,61 +2442,49 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>513.33333333333303</v>
-      </c>
-      <c r="E14">
-        <v>563.33333333333303</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>520</v>
-      </c>
-      <c r="E15">
-        <v>570</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>590</v>
-      </c>
-      <c r="E16">
-        <v>640</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>50</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D17">
-        <v>140</v>
-      </c>
-      <c r="E17">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2790,47 +2495,28 @@
         <v>50</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E18">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>280</v>
-      </c>
-      <c r="E19">
-        <v>330</v>
+        <f>SUM(C14:C18)</f>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>50</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>400</v>
-      </c>
-      <c r="E20">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2841,13 +2527,10 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>180</v>
-      </c>
-      <c r="E21">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2858,13 +2541,10 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>300</v>
-      </c>
-      <c r="E22">
-        <v>350</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2875,30 +2555,28 @@
         <v>50</v>
       </c>
       <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>420</v>
-      </c>
-      <c r="E23">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>912</v>
-      </c>
-      <c r="E25">
-        <v>962</v>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>250</v>
+      </c>
+      <c r="E24">
+        <f>SUM(C20:C24)</f>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2909,64 +2587,56 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D26">
-        <v>916</v>
-      </c>
-      <c r="E26">
-        <v>966</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>50</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D27">
-        <v>921</v>
-      </c>
-      <c r="E27">
-        <v>971</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D28">
-        <v>987.66666666666595</v>
-      </c>
-      <c r="E28">
-        <v>1037.6666666666599</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>50</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D29">
-        <v>1057.6666666666599</v>
+        <v>230</v>
       </c>
       <c r="E29">
-        <v>1107.6666666666599</v>
+        <f>SUM(C26:C29)</f>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2974,16 +2644,13 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>140</v>
-      </c>
-      <c r="E31">
-        <v>190</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2991,16 +2658,13 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>260</v>
-      </c>
-      <c r="E32">
-        <v>310</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3008,16 +2672,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>380</v>
-      </c>
-      <c r="E33">
-        <v>430</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3028,13 +2689,10 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>560</v>
-      </c>
-      <c r="E34">
-        <v>610</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3042,186 +2700,17 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D35">
-        <v>680</v>
+        <v>175</v>
       </c>
       <c r="E35">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>50</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>160</v>
-      </c>
-      <c r="E37">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>50</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>280</v>
-      </c>
-      <c r="E38">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>50</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>400</v>
-      </c>
-      <c r="E39">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>50</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>580</v>
-      </c>
-      <c r="E40">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>700</v>
-      </c>
-      <c r="E41">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>180</v>
-      </c>
-      <c r="E43">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>300</v>
-      </c>
-      <c r="E44">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>50</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>420</v>
-      </c>
-      <c r="E45">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>50</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>600</v>
-      </c>
-      <c r="E46">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>720</v>
-      </c>
-      <c r="E47">
-        <v>770</v>
+        <f>SUM(C31:C35)</f>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
